--- a/source/品势对战表/品势对阵表输出-b.xlsx
+++ b/source/品势对战表/品势对阵表输出-b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boyuekeji\Desktop\24.5.25 钱塘区阳光赛\导入\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wtf\WTF-Trans\WTF\source\品势对战表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C163552A-C029-49D0-B033-ADD9423C2186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204A7019-5ABF-4551-840E-14A456FF5B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024年奔跑吧·少年钱塘区阳光赛" sheetId="1" r:id="rId1"/>
@@ -850,9 +850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
